--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-908011.2563963146</v>
+        <v>-910567.5722235638</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>139.1071548763986</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>242.659639705389</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>68.59780996679973</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.7665065845761</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>196.3721373528932</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>24.93337795519206</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>115.8769204651472</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>139.9236777330946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>378.4439893217082</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>65.37618332860089</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>39.14465585226999</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>49.56582321395845</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>112.5284434523311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>200.2162519639169</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>71.60395572453946</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>68.98225678327195</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>172.8869738679992</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>29.95900124023802</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>177.0850116794024</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2606,10 +2606,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>9.146142788179368</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>205.2977868514352</v>
       </c>
     </row>
     <row r="29">
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545298</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652616</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1712.341567565139</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C2" t="n">
-        <v>1343.379050624727</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D2" t="n">
-        <v>1343.379050624727</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E2" t="n">
-        <v>957.5907980264828</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F2" t="n">
-        <v>546.6048932368753</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4328,22 +4328,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3080.495074432011</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136266</v>
+        <v>2749.432187088441</v>
       </c>
       <c r="W2" t="n">
-        <v>2862.546497866152</v>
+        <v>2396.663531818326</v>
       </c>
       <c r="X2" t="n">
-        <v>2489.080739605072</v>
+        <v>2023.197773557246</v>
       </c>
       <c r="Y2" t="n">
-        <v>2098.941407629261</v>
+        <v>2023.197773557246</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
         <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P3" t="n">
         <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R3" t="n">
         <v>3325.461468201687</v>
@@ -4437,7 +4437,7 @@
         <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
         <v>2775.312734507438</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218343</v>
+        <v>630.8037095364738</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218343</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W4" t="n">
-        <v>631.4698357812244</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X4" t="n">
-        <v>403.4802848832071</v>
+        <v>851.5962886800039</v>
       </c>
       <c r="Y4" t="n">
-        <v>248.1605812624231</v>
+        <v>630.8037095364738</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1384.829779622645</v>
+        <v>1942.567517572959</v>
       </c>
       <c r="C5" t="n">
-        <v>1015.867262682233</v>
+        <v>1573.605000632547</v>
       </c>
       <c r="D5" t="n">
-        <v>657.6015640754829</v>
+        <v>1215.339302025797</v>
       </c>
       <c r="E5" t="n">
-        <v>271.8133114772386</v>
+        <v>1215.339302025797</v>
       </c>
       <c r="F5" t="n">
-        <v>264.8678107280352</v>
+        <v>804.3533972361895</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>389.280947081186</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>91.69734668995318</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,10 +4577,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296686</v>
@@ -4595,22 +4595,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2535.034709923658</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>2161.568951662578</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="Y5" t="n">
-        <v>1771.429619686767</v>
+        <v>2329.167357637081</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.021302392779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>235.4482993600903</v>
+        <v>332.773976541745</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4750,25 +4750,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>803.8396114089453</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>803.8396114089453</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>803.8396114089453</v>
       </c>
       <c r="V7" t="n">
-        <v>666.202517612298</v>
+        <v>803.8396114089453</v>
       </c>
       <c r="W7" t="n">
-        <v>376.7853475753374</v>
+        <v>514.4224413719847</v>
       </c>
       <c r="X7" t="n">
-        <v>376.7853475753374</v>
+        <v>514.4224413719847</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.4482993600903</v>
+        <v>514.4224413719847</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2014.778044008242</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C8" t="n">
-        <v>1645.81552706783</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1287.54982846108</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>901.7615758628356</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>490.775671073228</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="Y8" t="n">
-        <v>2014.778044008242</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,40 +4887,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>679.1346335501037</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>203.3778500302724</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>203.3778500302724</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450112</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>679.1346335501037</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U10" t="n">
-        <v>679.1346335501037</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="V10" t="n">
-        <v>679.1346335501037</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="W10" t="n">
-        <v>679.1346335501037</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="X10" t="n">
-        <v>679.1346335501037</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="Y10" t="n">
-        <v>679.1346335501037</v>
+        <v>350.2677975281828</v>
       </c>
     </row>
     <row r="11">
@@ -5030,16 +5030,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5048,13 +5048,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>516.389687887188</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1842.268145910715</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1587.583657704828</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1298.166487667867</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1070.17693676985</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>849.3843576263199</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,7 +5273,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
         <v>631.7012443408906</v>
@@ -5434,13 +5434,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797729</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910807</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832661</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832661</v>
+        <v>2044.506784258104</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.842153176859</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,34 +5528,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487564</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831761</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625874</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588914</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.896109690896</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>961.2628027535234</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5887,22 +5887,22 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474262</v>
+        <v>432.9862109052757</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>432.9862109052757</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>265.7901116201556</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>124.0782804623537</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2018.188796316454</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>244.7670222746419</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6692,34 +6692,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,31 +6838,31 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942655</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,10 +7126,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7160,64 +7160,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942658</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,31 +7351,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7433,7 +7433,7 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273905</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150023</v>
@@ -7555,10 +7555,10 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979287</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7792,7 +7792,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,16 +7801,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7834,7 +7834,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>271.8145707770549</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,16 +22595,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>8.335532253512952</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>87.08513772260885</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>116.7746692030004</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>157.1118454222374</v>
       </c>
       <c r="Y4" t="n">
-        <v>64.81814676751867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>32.89260457060011</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>85.96822242532721</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>180.5336875992886</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>217.540741553319</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>45.6976794840956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>144.5956654067404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>51.30683507832751</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>40.32043864788585</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>137.2878198583898</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>13.28686650065956</v>
       </c>
     </row>
     <row r="29">
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038614</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.654232434377241e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-3.339550858072471e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1204569.945738043</v>
+        <v>1204569.945738042</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1204569.945738042</v>
+        <v>1204569.945738043</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1204569.945738043</v>
+        <v>1204569.945738042</v>
       </c>
     </row>
     <row r="12">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>186177.3549837541</v>
+        <v>186177.354983754</v>
       </c>
       <c r="C2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="D2" t="n">
         <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="F2" t="n">
         <v>221965.3149147517</v>
@@ -26329,13 +26329,13 @@
         <v>221965.3149147517</v>
       </c>
       <c r="H2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="I2" t="n">
         <v>221965.3149147517</v>
       </c>
       <c r="J2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="K2" t="n">
         <v>221965.3149147517</v>
@@ -26344,13 +26344,13 @@
         <v>225786.4867126781</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
         <v>225786.486712678</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
         <v>225786.4867126781</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11387.33216691498</v>
+        <v>11387.33216691494</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405254</v>
@@ -26439,22 +26439,22 @@
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186735</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>22817.55530496084</v>
+        <v>22817.55530496087</v>
       </c>
       <c r="M4" t="n">
         <v>22817.55530496084</v>
       </c>
       <c r="N4" t="n">
-        <v>22817.55530496088</v>
+        <v>22817.55530496082</v>
       </c>
       <c r="O4" t="n">
-        <v>22817.55530496078</v>
+        <v>22817.55530496083</v>
       </c>
       <c r="P4" t="n">
         <v>22817.55530496083</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1261888.663472147</v>
+        <v>-1262248.746487865</v>
       </c>
       <c r="C6" t="n">
-        <v>24255.80204723209</v>
+        <v>24255.80204723236</v>
       </c>
       <c r="D6" t="n">
-        <v>24255.80204723215</v>
+        <v>24255.80204723211</v>
       </c>
       <c r="E6" t="n">
-        <v>-219396.372758378</v>
+        <v>-219431.1106838136</v>
       </c>
       <c r="F6" t="n">
-        <v>106016.0890489772</v>
+        <v>105981.3511235415</v>
       </c>
       <c r="G6" t="n">
-        <v>106016.0890489772</v>
+        <v>105981.3511235415</v>
       </c>
       <c r="H6" t="n">
-        <v>106016.0890489772</v>
+        <v>105981.3511235416</v>
       </c>
       <c r="I6" t="n">
-        <v>106016.0890489772</v>
+        <v>105981.3511235415</v>
       </c>
       <c r="J6" t="n">
-        <v>-111515.1133483003</v>
+        <v>-111549.851273736</v>
       </c>
       <c r="K6" t="n">
-        <v>106016.0890489772</v>
+        <v>105981.3511235415</v>
       </c>
       <c r="L6" t="n">
-        <v>80377.09756017011</v>
+        <v>80377.09756017006</v>
       </c>
       <c r="M6" t="n">
-        <v>14749.78761828996</v>
+        <v>14749.78761828999</v>
       </c>
       <c r="N6" t="n">
-        <v>99804.81555380179</v>
+        <v>99804.8155538018</v>
       </c>
       <c r="O6" t="n">
-        <v>99804.81555380161</v>
+        <v>99804.81555380189</v>
       </c>
       <c r="P6" t="n">
-        <v>99804.81555380183</v>
+        <v>99804.81555380189</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>57.66987719171193</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>72.99435612844151</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>214.5495883005602</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>16.64355181773389</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>73.89210486629472</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,7 +27831,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>78.6609756190002</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>32.47773633174529</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>283.8647853888122</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,22 +28014,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>105.6103590620508</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>169.9831260622107</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31607,7 +31607,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31835,34 +31835,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32236,7 +32236,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
         <v>867.846407116256</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,7 +32555,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>468.9317632522997</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,10 +34150,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34208,31 +34208,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191299</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060414</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,7 +36203,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>330.3773834724255</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
         <v>418.6266618111712</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111712</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
         <v>418.6266618111712</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,10 +37798,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
